--- a/modelo/resultados.xlsx
+++ b/modelo/resultados.xlsx
@@ -1,37 +1,147 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/nnalbandian_frba_utn_edu_ar/Documents/Desktop/server-requests-simulation/modelo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_085D16675166AE0F623554765891C6F887519D21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19404F77-A58B-4234-BB39-C117B596149D}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>TRP_Simples</t>
+  </si>
+  <si>
+    <t>TRP_Complejas</t>
+  </si>
+  <si>
+    <t>PTO_GET_1</t>
+  </si>
+  <si>
+    <t>PTO_GET_2</t>
+  </si>
+  <si>
+    <t>PTO_GET_3</t>
+  </si>
+  <si>
+    <t>PTO_GET_4</t>
+  </si>
+  <si>
+    <t>PTO_GET_5</t>
+  </si>
+  <si>
+    <t>PTO_POST_1</t>
+  </si>
+  <si>
+    <t>PTO_POST_2</t>
+  </si>
+  <si>
+    <t>PTO_POST_3</t>
+  </si>
+  <si>
+    <t>PTO_POST_4</t>
+  </si>
+  <si>
+    <t>PTO_POST_5</t>
+  </si>
+  <si>
+    <t>PTO_POST_6</t>
+  </si>
+  <si>
+    <t>PTO_POST_7</t>
+  </si>
+  <si>
+    <t>PTO_POST_8</t>
+  </si>
+  <si>
+    <t>PTO_POST_9</t>
+  </si>
+  <si>
+    <t>PTO_POST_10</t>
+  </si>
+  <si>
+    <t>PTO_POST_11</t>
+  </si>
+  <si>
+    <t>PTO_POST_12</t>
+  </si>
+  <si>
+    <t>PTO_POST_13</t>
+  </si>
+  <si>
+    <t>PTO_POST_14</t>
+  </si>
+  <si>
+    <t>PTO_POST_15</t>
+  </si>
+  <si>
+    <t>PTO_POST_16</t>
+  </si>
+  <si>
+    <t>PTO_POST_17</t>
+  </si>
+  <si>
+    <t>PTO_POST_18</t>
+  </si>
+  <si>
+    <t>PTO_POST_19</t>
+  </si>
+  <si>
+    <t>PTO_POST_20</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>INTERMEDIO</t>
+  </si>
+  <si>
+    <t>OPTIMO</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +156,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,435 +480,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TRP_Simples</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>TRP_Complejas</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_GET_1</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_GET_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_GET_3</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_GET_4</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_GET_5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_5</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_6</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_7</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_8</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_9</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_10</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_11</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_12</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_13</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_14</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_15</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_16</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_17</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_18</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_19</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>PTO_POST_20</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>tipo</t>
-        </is>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>19</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>256</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1603</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>43.41</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>60.39</v>
       </c>
-      <c r="G2" t="n">
-        <v>76.01000000000001</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2">
+        <v>76.010000000000005</v>
+      </c>
+      <c r="H2">
         <v>87.25</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>93.95</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>6.19</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>7.29</v>
       </c>
-      <c r="L2" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="L2">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="M2">
         <v>10.48</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>12.46</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>14.95</v>
       </c>
-      <c r="P2" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="Q2" t="n">
+      <c r="P2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="Q2">
         <v>21.69</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>25.69</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>29.96</v>
       </c>
-      <c r="T2" t="n">
-        <v>34.34</v>
-      </c>
-      <c r="U2" t="n">
-        <v>38.88</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="T2">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="U2">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="V2">
         <v>43.15</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>46.8</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>50.24</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>53.24</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>55.18</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>57.33</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>57.18</v>
       </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>ACTUAL</t>
-        </is>
+      <c r="AD2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>18</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1598</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>210543</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>25.66</v>
       </c>
-      <c r="F3" t="n">
-        <v>36.38</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="F3">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="J3">
         <v>5.58</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>6.57</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>7.88</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>9.44</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>11.36</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>13.66</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>16.39</v>
       </c>
-      <c r="Q3" t="n">
-        <v>19.67</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="R3">
         <v>23.38</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>27.53</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>31.62</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>35.86</v>
       </c>
-      <c r="V3" t="n">
-        <v>39.84</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="V3">
+        <v>39.840000000000003</v>
+      </c>
+      <c r="W3">
         <v>43.31</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>46.32</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>49.1</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>50.74</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>52.41</v>
       </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>INTERMEDIO</t>
-        </is>
+      <c r="AD3" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>20</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>295</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1267</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>38.54</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>53.98</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>68.47</v>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>6.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>7.87</v>
       </c>
-      <c r="L4" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="M4">
         <v>10.96</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>13.1</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>15.64</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>18.89</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>22.27</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>26.6</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>31.08</v>
       </c>
-      <c r="T4" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="T4">
+        <v>35.729999999999997</v>
+      </c>
+      <c r="U4">
         <v>40.42</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>44.91</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>49</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>52.84</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>56.11</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>58.94</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>61.52</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>63.9</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>66.16</v>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>OPTIMO</t>
-        </is>
+      <c r="AD4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
